--- a/biology/Zoologie/Beethoven_et_le_Trésor_des_pirates/Beethoven_et_le_Trésor_des_pirates.xlsx
+++ b/biology/Zoologie/Beethoven_et_le_Trésor_des_pirates/Beethoven_et_le_Trésor_des_pirates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_des_pirates</t>
+          <t>Beethoven_et_le_Trésor_des_pirates</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven et le Trésor des pirates, en France, ou Beethoven: Le Trésor des pirates, au Québec (Beethoven's Treasure Tail), est un film américain, réalisé par Ron Oliver et sorti en octobre 2014 directement en vidéo. C'est la huitième aventure du Saint-Bernard Beethoven après Beethoven (1992), Beethoven 2 (1993), Beethoven 3 (2000), Beethoven 4 (2001), Beethoven et le Trésor perdu (2003), Beethoven : Une star est née ! (2008) et Beethoven sauve Noël (2011).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_des_pirates</t>
+          <t>Beethoven_et_le_Trésor_des_pirates</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un saint-bernard gaffeur et un petit garçon entrent en possession d'une carte menant au trésor d'un pirate.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_des_pirates</t>
+          <t>Beethoven_et_le_Trésor_des_pirates</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Beethoven et le Trésor des pirates
@@ -555,7 +571,7 @@
 Production : Albert T. Dickerson III
 Producteur délégué : Lisa Gooding
 Société(s) de production : Universal 1440 Entertainment
-Société(s) de distribution : Universal Pictures (France)[1]
+Société(s) de distribution : Universal Pictures (France)
 Pays d'origine :  États-Unis
 Langue originale : anglais
 Format : couleur
@@ -563,7 +579,7 @@
 Durée : 93 minutes
 Dates de sortie :
 États-Unis : 14 octobre 2014 (DVD)
-France : 2 décembre 2014 (DVD)[1]</t>
+France : 2 décembre 2014 (DVD)</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beethoven_et_le_Tr%C3%A9sor_des_pirates</t>
+          <t>Beethoven_et_le_Trésor_des_pirates</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jonathan Silverman (VF : Mathias Kozlowski) : Eddie Thornton
 Kristy Swanson (VF : Pascale Chemin) : Anne Parker
